--- a/resources/БАЗА ДАННЫХ/litefinance/excel/OperaniyiFx.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/OperaniyiFx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,34 +503,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.24 17:30</t>
+          <t>2023.11.27 19:05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.26092</t>
+          <t>1.26121</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 07:01</t>
+          <t>2023.11.27 20:12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.26142</t>
+          <t>1.26238</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0,57 USD</t>
+          <t>-1,24 USD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,32 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.23 08:27</t>
+          <t>2023.11.27 18:55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.25128</t>
+          <t>1.26043</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.23 12:43</t>
+          <t>2023.11.27 19:05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.25615</t>
+          <t>1.26113</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9,60 USD</t>
+          <t>-0,77 USD</t>
         </is>
       </c>
     </row>
@@ -582,39 +582,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.23 08:30</t>
+          <t>2023.11.27 15:02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.25145</t>
+          <t>1.26252</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.27 18:53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2561</t>
+          <t>1.26043</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4,58 USD</t>
+          <t>2,02 USD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -629,34 +629,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.23 05:20</t>
+          <t>2023.11.27 10:07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.25036</t>
+          <t>1.26064</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.23 08:27</t>
+          <t>2023.11.27 12:53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.25128</t>
+          <t>1.26294</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-1,98 USD</t>
+          <t>-2,37 USD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -666,32 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.23 05:01</t>
+          <t>2023.11.24 17:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.25057</t>
+          <t>1.26092</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.23 05:20</t>
+          <t>2023.11.27 07:01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.25036</t>
+          <t>1.26142</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-0,56 USD</t>
+          <t>-0,57 USD</t>
         </is>
       </c>
     </row>
@@ -708,39 +708,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.23 00:07</t>
+          <t>2023.11.23 08:27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.24927</t>
+          <t>1.25128</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.23 05:00</t>
+          <t>2023.11.23 12:43</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.25058</t>
+          <t>1.25615</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-2,76 USD</t>
+          <t>9,60 USD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -750,39 +750,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.22 15:41</t>
+          <t>2023.11.23 08:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.24914</t>
+          <t>1.25145</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.22 16:14</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.2459</t>
+          <t>1.2561</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>25,36 USD</t>
+          <t>4,58 USD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -792,39 +792,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.22 10:15</t>
+          <t>2023.11.23 05:20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.25259</t>
+          <t>1.25036</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.22 15:03</t>
+          <t>2023.11.23 08:27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.25059</t>
+          <t>1.25128</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-6,21 USD</t>
+          <t>-1,98 USD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -834,39 +834,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.22 09:40</t>
+          <t>2023.11.23 05:01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.2512</t>
+          <t>1.25057</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.22 10:07</t>
+          <t>2023.11.23 05:20</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.2532</t>
+          <t>1.25036</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-6,21 USD</t>
+          <t>-0,56 USD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -876,39 +876,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.17 19:42</t>
+          <t>2023.11.23 00:07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.24499</t>
+          <t>1.24927</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.20 06:22</t>
+          <t>2023.11.23 05:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.2489</t>
+          <t>1.25058</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>38,40 USD</t>
+          <t>-2,76 USD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -918,39 +918,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.17 19:21</t>
+          <t>2023.11.22 15:41</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.24437</t>
+          <t>1.24914</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.17 19:42</t>
+          <t>2023.11.22 16:14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.24505</t>
+          <t>1.2459</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6,10 USD</t>
+          <t>25,36 USD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -965,34 +965,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.17 13:45</t>
+          <t>2023.11.22 10:15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.24386</t>
+          <t>1.25259</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.17 19:20</t>
+          <t>2023.11.22 15:03</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.24446</t>
+          <t>1.25059</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5,30 USD</t>
+          <t>-6,21 USD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1002,39 +1002,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.17 07:00</t>
+          <t>2023.11.22 09:40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.24152</t>
+          <t>1.2512</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.17 08:00</t>
+          <t>2023.11.22 10:07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.23933</t>
+          <t>1.2532</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-29,38 USD</t>
+          <t>-6,21 USD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1044,39 +1044,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.17 06:34</t>
+          <t>2023.11.17 19:42</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.24055</t>
+          <t>1.24499</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.17 07:00</t>
+          <t>2023.11.20 06:22</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.24151</t>
+          <t>1.2489</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-8,24 USD</t>
+          <t>38,40 USD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1091,34 +1091,34 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.16 14:47</t>
+          <t>2023.11.17 19:21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.24358</t>
+          <t>1.24437</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.17 06:33</t>
+          <t>2023.11.17 19:42</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.24056</t>
+          <t>1.24505</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-15,45 USD</t>
+          <t>6,10 USD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1128,39 +1128,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.17 06:15</t>
+          <t>2023.11.17 13:45</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.24062</t>
+          <t>1.24386</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.17 06:33</t>
+          <t>2023.11.17 19:20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.24056</t>
+          <t>1.24446</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>5,30 USD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1175,34 +1175,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.16 14:45</t>
+          <t>2023.11.17 07:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.24305</t>
+          <t>1.24152</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.16 14:47</t>
+          <t>2023.11.17 08:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.24361</t>
+          <t>1.23933</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2,45 USD</t>
+          <t>-29,38 USD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1217,34 +1217,34 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.16 13:05</t>
+          <t>2023.11.17 06:34</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.23988</t>
+          <t>1.24055</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.16 14:30</t>
+          <t>2023.11.17 07:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.24198</t>
+          <t>1.24151</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-6,51 USD</t>
+          <t>-8,24 USD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1259,27 +1259,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.16 12:20</t>
+          <t>2023.11.16 14:47</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.24082</t>
+          <t>1.24358</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.16 13:05</t>
+          <t>2023.11.17 06:33</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.23988</t>
+          <t>1.24056</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-2,02 USD</t>
+          <t>-15,45 USD</t>
         </is>
       </c>
     </row>
@@ -1301,34 +1301,34 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.16 03:40</t>
+          <t>2023.11.17 06:15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.2388</t>
+          <t>1.24062</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.16 10:16</t>
+          <t>2023.11.17 06:33</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.24082</t>
+          <t>1.24056</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-2,09 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.15 08:07</t>
+          <t>2023.11.16 14:45</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.24715</t>
+          <t>1.24305</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.15 14:42</t>
+          <t>2023.11.16 14:47</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.2435</t>
+          <t>1.24361</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10,74 USD</t>
+          <t>2,45 USD</t>
         </is>
       </c>
     </row>
@@ -1385,27 +1385,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.14 22:22</t>
+          <t>2023.11.16 13:05</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.24965</t>
+          <t>1.23988</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.15 07:34</t>
+          <t>2023.11.16 14:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.24888</t>
+          <t>1.24198</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2,10 USD</t>
+          <t>-6,51 USD</t>
         </is>
       </c>
     </row>
@@ -1422,39 +1422,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.14 22:19</t>
+          <t>2023.11.16 12:20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.24974</t>
+          <t>1.24082</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.14 22:27</t>
+          <t>2023.11.16 13:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.24964</t>
+          <t>1.23988</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>-2,02 USD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1464,39 +1464,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.13 10:15</t>
+          <t>2023.11.16 03:40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.22436</t>
+          <t>1.2388</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.13 22:06</t>
+          <t>2023.11.16 10:16</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.22783</t>
+          <t>1.24082</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>85,00 USD</t>
+          <t>-2,09 USD</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1511,34 +1511,34 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.09 18:32</t>
+          <t>2023.11.15 08:07</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.22721</t>
+          <t>1.24715</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.09 18:33</t>
+          <t>2023.11.15 14:42</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.22723</t>
+          <t>1.2435</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-0,09 USD</t>
+          <t>10,74 USD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1548,39 +1548,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.09 16:40</t>
+          <t>2023.11.14 22:22</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.22885</t>
+          <t>1.24965</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.09 17:49</t>
+          <t>2023.11.15 07:34</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.22728</t>
+          <t>1.24888</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-6,56 USD</t>
+          <t>2,10 USD</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1590,39 +1590,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.09 16:45</t>
+          <t>2023.11.14 22:19</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.22891</t>
+          <t>1.24974</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.09 17:48</t>
+          <t>2023.11.14 22:27</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.22721</t>
+          <t>1.24964</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-8,85 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1637,34 +1637,34 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.09 16:47</t>
+          <t>2023.11.13 10:15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.2285</t>
+          <t>1.22436</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.09 17:47</t>
+          <t>2023.11.13 22:06</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.22728</t>
+          <t>1.22783</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-6,45 USD</t>
+          <t>85,00 USD</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1674,39 +1674,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.09 16:41</t>
+          <t>2023.11.09 18:32</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.22869</t>
+          <t>1.22721</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.09 16:45</t>
+          <t>2023.11.09 18:33</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.22903</t>
+          <t>1.22723</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1,08 USD</t>
+          <t>-0,09 USD</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1721,34 +1721,34 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.09 16:42</t>
+          <t>2023.11.09 16:40</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.22864</t>
+          <t>1.22885</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.09 16:45</t>
+          <t>2023.11.09 17:49</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.22905</t>
+          <t>1.22728</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1,70 USD</t>
+          <t>-6,56 USD</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1763,34 +1763,34 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.09 16:45</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.22855</t>
+          <t>1.22891</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.09 16:33</t>
+          <t>2023.11.09 17:48</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.22828</t>
+          <t>1.22721</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-6,80 USD</t>
+          <t>-8,85 USD</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.09 16:47</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1815,24 +1815,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.09 16:33</t>
+          <t>2023.11.09 17:47</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.22836</t>
+          <t>1.22728</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-4,20 USD</t>
+          <t>-6,45 USD</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1847,34 +1847,34 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.09 16:41</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.22849</t>
+          <t>1.22869</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.09 16:33</t>
+          <t>2023.11.09 16:45</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.22832</t>
+          <t>1.22903</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-4,80 USD</t>
+          <t>1,08 USD</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1884,32 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.09 12:01</t>
+          <t>2023.11.09 16:42</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.22752</t>
+          <t>1.22864</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.09 16:45</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.22864</t>
+          <t>1.22905</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-23,80 USD</t>
+          <t>1,70 USD</t>
         </is>
       </c>
     </row>
@@ -1926,32 +1926,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.09 12:01</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.22746</t>
+          <t>1.22855</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.09 16:33</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.2286</t>
+          <t>1.22828</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-24,20 USD</t>
+          <t>-6,80 USD</t>
         </is>
       </c>
     </row>
@@ -1968,32 +1968,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.09 12:01</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.22747</t>
+          <t>1.2285</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.09 16:33</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.22858</t>
+          <t>1.22836</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-23,60 USD</t>
+          <t>-4,20 USD</t>
         </is>
       </c>
     </row>
@@ -2015,27 +2015,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.09 10:30</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.23051</t>
+          <t>1.22849</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.09 12:00</t>
+          <t>2023.11.09 16:33</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.22749</t>
+          <t>1.22832</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-61,80 USD</t>
+          <t>-4,80 USD</t>
         </is>
       </c>
     </row>
@@ -2052,32 +2052,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.09 10:30</t>
+          <t>2023.11.09 12:01</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.23048</t>
+          <t>1.22752</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.09 12:00</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.22751</t>
+          <t>1.22864</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-60,80 USD</t>
+          <t>-23,80 USD</t>
         </is>
       </c>
     </row>
@@ -2099,27 +2099,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.08 20:45</t>
+          <t>2023.11.09 12:01</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.22875</t>
+          <t>1.22746</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.09 10:30</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.23056</t>
+          <t>1.2286</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-37,60 USD</t>
+          <t>-24,20 USD</t>
         </is>
       </c>
     </row>
@@ -2136,32 +2136,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.08 19:56</t>
+          <t>2023.11.09 12:01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.22977</t>
+          <t>1.22747</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.08 20:45</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.22875</t>
+          <t>1.22858</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-21,80 USD</t>
+          <t>-23,60 USD</t>
         </is>
       </c>
     </row>
@@ -2183,27 +2183,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.08 15:27</t>
+          <t>2023.11.09 10:30</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.22692</t>
+          <t>1.23051</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.08 16:51</t>
+          <t>2023.11.09 12:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.22833</t>
+          <t>1.22749</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>26,80 USD</t>
+          <t>-61,80 USD</t>
         </is>
       </c>
     </row>
@@ -2225,27 +2225,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.08 15:16</t>
+          <t>2023.11.09 10:30</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.2273</t>
+          <t>1.23048</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.08 15:25</t>
+          <t>2023.11.09 12:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.22661</t>
+          <t>1.22751</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-15,20 USD</t>
+          <t>-60,80 USD</t>
         </is>
       </c>
     </row>
@@ -2267,27 +2267,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.08 00:24</t>
+          <t>2023.11.08 20:45</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>1.22875</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.08 09:19</t>
+          <t>2023.11.09 10:30</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.2265</t>
+          <t>1.23056</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>52,60 USD</t>
+          <t>-37,60 USD</t>
         </is>
       </c>
     </row>
@@ -2304,32 +2304,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.08 00:24</t>
+          <t>2023.11.08 19:56</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>1.22977</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.08 09:19</t>
+          <t>2023.11.08 20:45</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.2265</t>
+          <t>1.22875</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>52,60 USD</t>
+          <t>-21,80 USD</t>
         </is>
       </c>
     </row>
@@ -2351,27 +2351,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.07 22:41</t>
+          <t>2023.11.08 15:27</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.22992</t>
+          <t>1.22692</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.08 00:22</t>
+          <t>2023.11.08 16:51</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.22922</t>
+          <t>1.22833</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-15,40 USD</t>
+          <t>26,80 USD</t>
         </is>
       </c>
     </row>
@@ -2393,22 +2393,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.07 22:41</t>
+          <t>2023.11.08 15:16</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.22991</t>
+          <t>1.2273</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.08 00:22</t>
+          <t>2023.11.08 15:25</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.22922</t>
+          <t>1.22661</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2435,27 +2435,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.07 21:06</t>
+          <t>2023.11.08 00:24</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.22897</t>
+          <t>1.2292</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.07 22:39</t>
+          <t>2023.11.08 09:19</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.22994</t>
+          <t>1.2265</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-20,80 USD</t>
+          <t>52,60 USD</t>
         </is>
       </c>
     </row>
@@ -2472,39 +2472,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.07 20:16</t>
+          <t>2023.11.08 00:24</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.23037</t>
+          <t>1.2292</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.07 21:05</t>
+          <t>2023.11.08 09:19</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.22908</t>
+          <t>1.2265</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-27,20 USD</t>
+          <t>52,60 USD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2519,34 +2519,34 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.07 20:14</t>
+          <t>2023.11.07 22:41</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.23012</t>
+          <t>1.22992</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.07 20:16</t>
+          <t>2023.11.08 00:22</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.23038</t>
+          <t>1.22922</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3,42 USD</t>
+          <t>-15,40 USD</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2556,32 +2556,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.07 08:00</t>
+          <t>2023.11.07 22:41</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.23189</t>
+          <t>1.22991</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.07 12:38</t>
+          <t>2023.11.08 00:22</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.22779</t>
+          <t>1.22922</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>72,54 USD</t>
+          <t>-15,20 USD</t>
         </is>
       </c>
     </row>
@@ -2598,32 +2598,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.08 15:27</t>
+          <t>2023.11.07 21:06</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.22692</t>
+          <t>1.22897</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.08 16:51</t>
+          <t>2023.11.07 22:39</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.22833</t>
+          <t>1.22994</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>26,80 USD</t>
+          <t>-20,80 USD</t>
         </is>
       </c>
     </row>
@@ -2645,34 +2645,34 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.08 15:16</t>
+          <t>2023.11.07 20:16</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.2273</t>
+          <t>1.23037</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.08 15:25</t>
+          <t>2023.11.07 21:05</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.22661</t>
+          <t>1.22908</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-15,20 USD</t>
+          <t>-27,20 USD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2682,39 +2682,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.08 00:24</t>
+          <t>2023.11.07 20:14</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>1.23012</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.08 09:19</t>
+          <t>2023.11.07 20:16</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.2265</t>
+          <t>1.23038</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>52,60 USD</t>
+          <t>3,42 USD</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2729,27 +2729,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.08 00:24</t>
+          <t>2023.11.07 08:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>1.23189</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.08 09:19</t>
+          <t>2023.11.07 12:38</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.2265</t>
+          <t>1.22779</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>52,60 USD</t>
+          <t>72,54 USD</t>
         </is>
       </c>
     </row>
@@ -2771,27 +2771,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.07 22:41</t>
+          <t>2023.11.08 15:27</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.22992</t>
+          <t>1.22692</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.08 00:22</t>
+          <t>2023.11.08 16:51</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.22922</t>
+          <t>1.22833</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-15,40 USD</t>
+          <t>26,80 USD</t>
         </is>
       </c>
     </row>
@@ -2813,22 +2813,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.07 22:41</t>
+          <t>2023.11.08 15:16</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.22991</t>
+          <t>1.2273</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.08 00:22</t>
+          <t>2023.11.08 15:25</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.22922</t>
+          <t>1.22661</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2855,27 +2855,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.07 21:06</t>
+          <t>2023.11.08 00:24</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.22897</t>
+          <t>1.2292</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.07 22:39</t>
+          <t>2023.11.08 09:19</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.22994</t>
+          <t>1.2265</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-20,80 USD</t>
+          <t>52,60 USD</t>
         </is>
       </c>
     </row>
@@ -2892,39 +2892,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.07 20:16</t>
+          <t>2023.11.08 00:24</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.23037</t>
+          <t>1.2292</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.07 21:05</t>
+          <t>2023.11.08 09:19</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.22908</t>
+          <t>1.2265</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-27,20 USD</t>
+          <t>52,60 USD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2939,34 +2939,34 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.07 20:14</t>
+          <t>2023.11.07 22:41</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.23012</t>
+          <t>1.22992</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.07 20:16</t>
+          <t>2023.11.08 00:22</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.23038</t>
+          <t>1.22922</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3,42 USD</t>
+          <t>-15,40 USD</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2976,39 +2976,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.07 08:00</t>
+          <t>2023.11.07 22:41</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.23189</t>
+          <t>1.22991</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.07 12:38</t>
+          <t>2023.11.08 00:22</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.22779</t>
+          <t>1.22922</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>72,54 USD</t>
+          <t>-15,20 USD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3023,34 +3023,34 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.06 12:15</t>
+          <t>2023.11.07 21:06</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.24165</t>
+          <t>1.22897</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.06 18:46</t>
+          <t>2023.11.07 22:39</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.2372</t>
+          <t>1.22994</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>65,70 USD</t>
+          <t>-20,80 USD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3060,39 +3060,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.06 12:14</t>
+          <t>2023.11.07 20:16</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.2417</t>
+          <t>1.23037</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.06 18:46</t>
+          <t>2023.11.07 21:05</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.2372</t>
+          <t>1.22908</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>66,45 USD</t>
+          <t>-27,20 USD</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3102,39 +3102,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.06 10:32</t>
+          <t>2023.11.07 20:14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.24105</t>
+          <t>1.23012</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.06 18:46</t>
+          <t>2023.11.07 20:16</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.2372</t>
+          <t>1.23038</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>56,70 USD</t>
+          <t>3,42 USD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3149,27 +3149,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.06 10:32</t>
+          <t>2023.11.07 08:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.24101</t>
+          <t>1.23189</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.06 18:46</t>
+          <t>2023.11.07 12:38</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.2372</t>
+          <t>1.22779</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>56,10 USD</t>
+          <t>72,54 USD</t>
         </is>
       </c>
     </row>
@@ -3191,12 +3191,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.06 10:31</t>
+          <t>2023.11.06 12:15</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.24126</t>
+          <t>1.24165</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>59,85 USD</t>
+          <t>65,70 USD</t>
         </is>
       </c>
     </row>
@@ -3233,27 +3233,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.06 12:22</t>
+          <t>2023.11.06 12:14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.24202</t>
+          <t>1.2417</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.06 13:27</t>
+          <t>2023.11.06 18:46</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.24205</t>
+          <t>1.2372</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-1,50 USD</t>
+          <t>66,45 USD</t>
         </is>
       </c>
     </row>
@@ -3275,27 +3275,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.03 17:36</t>
+          <t>2023.11.06 10:32</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.23774</t>
+          <t>1.24105</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.06 09:35</t>
+          <t>2023.11.06 18:46</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.24005</t>
+          <t>1.2372</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-35,70 USD</t>
+          <t>56,70 USD</t>
         </is>
       </c>
     </row>
@@ -3317,27 +3317,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.03 17:11</t>
+          <t>2023.11.06 10:32</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.23663</t>
+          <t>1.24101</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.06 09:35</t>
+          <t>2023.11.06 18:46</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.24005</t>
+          <t>1.2372</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-52,35 USD</t>
+          <t>56,10 USD</t>
         </is>
       </c>
     </row>
@@ -3359,27 +3359,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.03 17:11</t>
+          <t>2023.11.06 10:31</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.23657</t>
+          <t>1.24126</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.06 09:35</t>
+          <t>2023.11.06 18:46</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.24005</t>
+          <t>1.2372</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-53,25 USD</t>
+          <t>59,85 USD</t>
         </is>
       </c>
     </row>
@@ -3401,27 +3401,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.03 16:02</t>
+          <t>2023.11.06 12:22</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.23443</t>
+          <t>1.24202</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.03 16:31</t>
+          <t>2023.11.06 13:27</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.23657</t>
+          <t>1.24205</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-33,15 USD</t>
+          <t>-1,50 USD</t>
         </is>
       </c>
     </row>
@@ -3443,27 +3443,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.03 15:02</t>
+          <t>2023.11.03 17:36</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.23316</t>
+          <t>1.23774</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.03 16:31</t>
+          <t>2023.11.06 09:35</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.23657</t>
+          <t>1.24005</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-52,20 USD</t>
+          <t>-35,70 USD</t>
         </is>
       </c>
     </row>
@@ -3485,27 +3485,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.03 14:24</t>
+          <t>2023.11.03 17:11</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.23224</t>
+          <t>1.23663</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.03 15:00</t>
+          <t>2023.11.06 09:35</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.23489</t>
+          <t>1.24005</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-40,80 USD</t>
+          <t>-52,35 USD</t>
         </is>
       </c>
     </row>
@@ -3522,32 +3522,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.03 10:37</t>
+          <t>2023.11.03 17:11</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.22067</t>
+          <t>1.23657</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.03 13:14</t>
+          <t>2023.11.06 09:35</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.2234</t>
+          <t>1.24005</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>39,90 USD</t>
+          <t>-53,25 USD</t>
         </is>
       </c>
     </row>
@@ -3564,32 +3564,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.03 10:37</t>
+          <t>2023.11.03 16:02</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.22066</t>
+          <t>1.23443</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.03 13:14</t>
+          <t>2023.11.03 16:31</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.22338</t>
+          <t>1.23657</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>39,75 USD</t>
+          <t>-33,15 USD</t>
         </is>
       </c>
     </row>
@@ -3606,32 +3606,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.03 10:37</t>
+          <t>2023.11.03 15:02</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.22065</t>
+          <t>1.23316</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.03 13:14</t>
+          <t>2023.11.03 16:31</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.2234</t>
+          <t>1.23657</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>40,20 USD</t>
+          <t>-52,20 USD</t>
         </is>
       </c>
     </row>
@@ -3653,27 +3653,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.03 10:11</t>
+          <t>2023.11.03 14:24</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.21926</t>
+          <t>1.23224</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.03 10:35</t>
+          <t>2023.11.03 15:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.22049</t>
+          <t>1.23489</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-19,50 USD</t>
+          <t>-40,80 USD</t>
         </is>
       </c>
     </row>
@@ -3690,39 +3690,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.03 10:11</t>
+          <t>2023.11.03 10:37</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.21928</t>
+          <t>1.22067</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.03 10:35</t>
+          <t>2023.11.03 13:14</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.22049</t>
+          <t>1.2234</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-19,20 USD</t>
+          <t>39,90 USD</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3737,34 +3737,34 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.03 03:10</t>
+          <t>2023.11.03 10:37</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.21949</t>
+          <t>1.22066</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.03 10:09</t>
+          <t>2023.11.03 13:14</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.21915</t>
+          <t>1.22338</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-4,10 USD</t>
+          <t>39,75 USD</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3779,34 +3779,34 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.03 03:10</t>
+          <t>2023.11.03 10:37</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.21948</t>
+          <t>1.22065</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.03 09:12</t>
+          <t>2023.11.03 13:14</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.21949</t>
+          <t>1.2234</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>-0,60 USD</t>
+          <t>40,20 USD</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3821,34 +3821,34 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.03 02:10</t>
+          <t>2023.11.03 10:11</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.21876</t>
+          <t>1.21926</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.03 03:10</t>
+          <t>2023.11.03 10:35</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.21953</t>
+          <t>1.22049</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-8,40 USD</t>
+          <t>-19,50 USD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3863,34 +3863,34 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.03 02:11</t>
+          <t>2023.11.03 10:11</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.21876</t>
+          <t>1.21928</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.03 03:10</t>
+          <t>2023.11.03 10:35</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.21953</t>
+          <t>1.22049</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-8,40 USD</t>
+          <t>-19,20 USD</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3905,27 +3905,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.02 21:52</t>
+          <t>2023.11.03 03:10</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.22013</t>
+          <t>1.21949</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.03 02:08</t>
+          <t>2023.11.03 10:09</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.21854</t>
+          <t>1.21915</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>-13,28 USD</t>
+          <t>-4,10 USD</t>
         </is>
       </c>
     </row>
@@ -3947,27 +3947,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.02 18:20</t>
+          <t>2023.11.03 03:10</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.21895</t>
+          <t>1.21948</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.03 02:08</t>
+          <t>2023.11.03 09:12</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.21854</t>
+          <t>1.21949</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-4,80 USD</t>
+          <t>-0,60 USD</t>
         </is>
       </c>
     </row>
@@ -3984,32 +3984,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.02 18:21</t>
+          <t>2023.11.03 02:10</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.21894</t>
+          <t>1.21876</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.02 21:55</t>
+          <t>2023.11.03 03:10</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.22022</t>
+          <t>1.21953</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>12,10 USD</t>
+          <t>-8,40 USD</t>
         </is>
       </c>
     </row>
@@ -4031,34 +4031,34 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.02 17:16</t>
+          <t>2023.11.03 02:11</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.21765</t>
+          <t>1.21876</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.02 18:20</t>
+          <t>2023.11.03 03:10</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.21888</t>
+          <t>1.21953</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-13,00 USD</t>
+          <t>-8,40 USD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4068,32 +4068,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.02 14:50</t>
+          <t>2023.11.02 21:52</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.21874</t>
+          <t>1.22013</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.02 17:15</t>
+          <t>2023.11.03 02:08</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.21753</t>
+          <t>1.21854</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>11,40 USD</t>
+          <t>-13,28 USD</t>
         </is>
       </c>
     </row>
@@ -4115,27 +4115,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.02 10:28</t>
+          <t>2023.11.02 18:20</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.21849</t>
+          <t>1.21895</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.02 14:48</t>
+          <t>2023.11.03 02:08</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.21854</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>4,40 USD</t>
+          <t>-4,80 USD</t>
         </is>
       </c>
     </row>
@@ -4152,32 +4152,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.02 08:08</t>
+          <t>2023.11.02 18:21</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.21764</t>
+          <t>1.21894</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.02 10:27</t>
+          <t>2023.11.02 21:55</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.21849</t>
+          <t>1.22022</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-9,20 USD</t>
+          <t>12,10 USD</t>
         </is>
       </c>
     </row>
@@ -4199,34 +4199,34 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.02 05:28</t>
+          <t>2023.11.02 17:16</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.21869</t>
+          <t>1.21765</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.02 07:59</t>
+          <t>2023.11.02 18:20</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.21804</t>
+          <t>1.21888</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>5,80 USD</t>
+          <t>-13,00 USD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4241,34 +4241,34 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.02 05:25</t>
+          <t>2023.11.02 14:50</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.21869</t>
+          <t>1.21874</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.02 07:58</t>
+          <t>2023.11.02 17:15</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.21816</t>
+          <t>1.21753</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>3,68 USD</t>
+          <t>11,40 USD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4283,34 +4283,34 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.01 20:50</t>
+          <t>2023.11.02 10:28</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.21487</t>
+          <t>1.21849</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.02 01:29</t>
+          <t>2023.11.02 14:48</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.21871</t>
+          <t>1.219</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>30,16 USD</t>
+          <t>4,40 USD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4320,39 +4320,39 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.01 20:50</t>
+          <t>2023.11.02 08:08</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.21475</t>
+          <t>1.21764</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.02 01:29</t>
+          <t>2023.11.02 10:27</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.21879</t>
+          <t>1.21849</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>31,76 USD</t>
+          <t>-9,20 USD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4367,27 +4367,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.01 17:00</t>
+          <t>2023.11.02 05:28</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.21258</t>
+          <t>1.21869</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.01 20:19</t>
+          <t>2023.11.02 07:59</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.21501</t>
+          <t>1.21804</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-20,00 USD</t>
+          <t>5,80 USD</t>
         </is>
       </c>
     </row>
@@ -4409,27 +4409,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.01 17:06</t>
+          <t>2023.11.02 05:25</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.21239</t>
+          <t>1.21869</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.01 20:03</t>
+          <t>2023.11.02 07:58</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.21339</t>
+          <t>1.21816</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-8,56 USD</t>
+          <t>3,68 USD</t>
         </is>
       </c>
     </row>
@@ -4446,39 +4446,39 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.01 10:45</t>
+          <t>2023.11.01 20:50</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.21381</t>
+          <t>1.21487</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.01 14:31</t>
+          <t>2023.11.02 01:29</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.20971</t>
+          <t>1.21871</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>32,24 USD</t>
+          <t>30,16 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4488,32 +4488,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.01 13:10</t>
+          <t>2023.11.01 20:50</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>1.21475</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.01 14:31</t>
+          <t>2023.11.02 01:29</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.20971</t>
+          <t>1.21879</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>6,44 USD</t>
+          <t>31,76 USD</t>
         </is>
       </c>
     </row>
@@ -4535,27 +4535,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.01 13:10</t>
+          <t>2023.11.01 17:00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.21299</t>
+          <t>1.21258</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.01 14:31</t>
+          <t>2023.11.01 20:19</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.20971</t>
+          <t>1.21501</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>25,68 USD</t>
+          <t>-20,00 USD</t>
         </is>
       </c>
     </row>
@@ -4572,32 +4572,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.01 08:26</t>
+          <t>2023.11.01 17:06</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.21582</t>
+          <t>1.21239</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.01 10:31</t>
+          <t>2023.11.01 20:03</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.21382</t>
+          <t>1.21339</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-16,56 USD</t>
+          <t>-8,56 USD</t>
         </is>
       </c>
     </row>
@@ -4619,62 +4619,230 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>2023.11.01 10:45</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1.21381</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2023.11.01 14:31</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>1.20971</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>32,24 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023.11.01 13:10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1.213</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2023.11.01 14:31</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1.20971</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>6,44 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023.11.01 13:10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1.21299</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2023.11.01 14:31</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1.20971</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>25,68 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023.11.01 08:26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1.21582</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2023.11.01 10:31</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1.21382</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>-16,56 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>2023.10.31 14:45</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1.21437</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>2023.11.01 08:26</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>1.21586</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>-12,48 USD</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="B101" t="inlineStr">
+    <row r="105">
+      <c r="B105" t="inlineStr">
         <is>
           <t>TradingS Capital</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>2023.03.09 22:36</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>356.35%</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>2023.03.10 04:03</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>356.1%</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>0,00 USD</t>
         </is>

--- a/resources/БАЗА ДАННЫХ/litefinance/excel/OperaniyiFx.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/OperaniyiFx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.27 19:05</t>
+          <t>2023.11.28 17:59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.26121</t>
+          <t>1.27104</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 20:12</t>
+          <t>2023.11.29 21:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.26238</t>
+          <t>1.26927</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-1,24 USD</t>
+          <t>1,70 USD</t>
         </is>
       </c>
     </row>
@@ -545,27 +545,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.27 18:55</t>
+          <t>2023.11.29 20:37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.26043</t>
+          <t>1.27041</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.27 19:05</t>
+          <t>2023.11.29 21:29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.26113</t>
+          <t>1.26927</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-0,77 USD</t>
+          <t>1,07 USD</t>
         </is>
       </c>
     </row>
@@ -587,27 +587,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.27 15:02</t>
+          <t>2023.11.29 20:30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.26252</t>
+          <t>1.27124</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.27 18:53</t>
+          <t>2023.11.29 20:37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.26043</t>
+          <t>1.2705</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2,02 USD</t>
+          <t>0,67 USD</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.27 10:07</t>
+          <t>2023.11.29 20:08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.26064</t>
+          <t>1.2723</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.27 12:53</t>
+          <t>2023.11.29 20:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.26294</t>
+          <t>1.27129</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-2,37 USD</t>
+          <t>0,94 USD</t>
         </is>
       </c>
     </row>
@@ -671,34 +671,34 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.24 17:30</t>
+          <t>2023.11.29 19:55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.26092</t>
+          <t>1.27185</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.27 07:01</t>
+          <t>2023.11.29 20:07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.26142</t>
+          <t>1.27241</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-0,57 USD</t>
+          <t>-0,63 USD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -708,32 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.23 08:27</t>
+          <t>2023.11.29 19:40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.25128</t>
+          <t>1.27089</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.23 12:43</t>
+          <t>2023.11.29 19:55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.25615</t>
+          <t>1.27184</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9,60 USD</t>
+          <t>-1,02 USD</t>
         </is>
       </c>
     </row>
@@ -750,39 +750,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.23 08:30</t>
+          <t>2023.11.28 20:18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.25145</t>
+          <t>1.26944</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.29 19:39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.2561</t>
+          <t>1.27094</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4,58 USD</t>
+          <t>-1,57 USD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -797,34 +797,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.23 05:20</t>
+          <t>2023.11.28 19:43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.25036</t>
+          <t>1.26824</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.23 08:27</t>
+          <t>2023.11.28 20:17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.25128</t>
+          <t>1.26942</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-1,98 USD</t>
+          <t>-1,25 USD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -834,39 +834,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.23 05:01</t>
+          <t>2023.11.28 19:05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.25057</t>
+          <t>1.26864</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.23 05:20</t>
+          <t>2023.11.28 19:43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.25036</t>
+          <t>1.26815</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-0,56 USD</t>
+          <t>0,42 USD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -881,34 +881,34 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.23 00:07</t>
+          <t>2023.11.28 16:49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.24927</t>
+          <t>1.2697</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.23 05:00</t>
+          <t>2023.11.28 19:04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.25058</t>
+          <t>1.26852</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-2,76 USD</t>
+          <t>1,11 USD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -923,34 +923,34 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.22 15:41</t>
+          <t>2023.11.28 16:41</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.24914</t>
+          <t>1.26875</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.22 16:14</t>
+          <t>2023.11.28 16:52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.2459</t>
+          <t>1.2685</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>25,36 USD</t>
+          <t>0,18 USD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -960,39 +960,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.22 10:15</t>
+          <t>2023.11.28 16:36</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.25259</t>
+          <t>1.26607</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.22 15:03</t>
+          <t>2023.11.28 16:39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.25059</t>
+          <t>1.26808</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-6,21 USD</t>
+          <t>-2,08 USD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1007,34 +1007,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.22 09:40</t>
+          <t>2023.11.28 16:16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.2512</t>
+          <t>1.26573</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.22 10:07</t>
+          <t>2023.11.28 16:35</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.2532</t>
+          <t>1.26634</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-6,21 USD</t>
+          <t>-0,68 USD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1044,39 +1044,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.17 19:42</t>
+          <t>2023.11.28 15:35</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.24499</t>
+          <t>1.26553</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.20 06:22</t>
+          <t>2023.11.28 15:42</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.2489</t>
+          <t>1.26561</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>38,40 USD</t>
+          <t>-0,15 USD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1086,39 +1086,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.17 19:21</t>
+          <t>2023.11.27 22:02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.24437</t>
+          <t>1.26292</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.17 19:42</t>
+          <t>2023.11.28 15:24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.24505</t>
+          <t>1.26506</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6,10 USD</t>
+          <t>-2,21 USD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1128,39 +1128,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.17 13:45</t>
+          <t>2023.11.27 21:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.24386</t>
+          <t>1.26257</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.17 19:20</t>
+          <t>2023.11.27 22:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.24446</t>
+          <t>1.26292</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5,30 USD</t>
+          <t>-0,42 USD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1170,39 +1170,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.17 07:00</t>
+          <t>2023.11.27 20:52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.24152</t>
+          <t>1.26292</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.17 08:00</t>
+          <t>2023.11.27 21:17</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.23933</t>
+          <t>1.26259</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-29,38 USD</t>
+          <t>0,26 USD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1217,34 +1217,34 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.17 06:34</t>
+          <t>2023.11.27 20:14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.24055</t>
+          <t>1.26249</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.17 07:00</t>
+          <t>2023.11.27 20:50</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.24151</t>
+          <t>1.26295</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-8,24 USD</t>
+          <t>-0,53 USD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1254,32 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.16 14:47</t>
+          <t>2023.11.27 19:05</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.24358</t>
+          <t>1.26121</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.17 06:33</t>
+          <t>2023.11.27 20:12</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.24056</t>
+          <t>1.26238</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-15,45 USD</t>
+          <t>-1,24 USD</t>
         </is>
       </c>
     </row>
@@ -1301,34 +1301,34 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.17 06:15</t>
+          <t>2023.11.27 18:55</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.24062</t>
+          <t>1.26043</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.17 06:33</t>
+          <t>2023.11.27 19:05</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.24056</t>
+          <t>1.26113</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-0,01 USD</t>
+          <t>-0,77 USD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1338,39 +1338,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.16 14:45</t>
+          <t>2023.11.27 15:02</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.24305</t>
+          <t>1.26252</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.16 14:47</t>
+          <t>2023.11.27 18:53</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.24361</t>
+          <t>1.26043</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2,45 USD</t>
+          <t>2,02 USD</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1385,34 +1385,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.16 13:05</t>
+          <t>2023.11.27 10:07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.23988</t>
+          <t>1.26064</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.16 14:30</t>
+          <t>2023.11.27 12:53</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.24198</t>
+          <t>1.26294</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-6,51 USD</t>
+          <t>-2,37 USD</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1422,39 +1422,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.16 12:20</t>
+          <t>2023.11.24 17:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.24082</t>
+          <t>1.26092</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.16 13:05</t>
+          <t>2023.11.27 07:01</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.23988</t>
+          <t>1.26142</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-2,02 USD</t>
+          <t>-0,57 USD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1464,39 +1464,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.16 03:40</t>
+          <t>2023.11.23 08:27</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.2388</t>
+          <t>1.25128</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.16 10:16</t>
+          <t>2023.11.23 12:43</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.24082</t>
+          <t>1.25615</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-2,09 USD</t>
+          <t>9,60 USD</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1506,39 +1506,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.15 08:07</t>
+          <t>2023.11.23 08:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.24715</t>
+          <t>1.25145</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.15 14:42</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.2435</t>
+          <t>1.2561</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10,74 USD</t>
+          <t>4,58 USD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1553,27 +1553,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.14 22:22</t>
+          <t>2023.11.23 05:20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.24965</t>
+          <t>1.25036</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.15 07:34</t>
+          <t>2023.11.23 08:27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.24888</t>
+          <t>1.25128</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2,10 USD</t>
+          <t>-1,98 USD</t>
         </is>
       </c>
     </row>
@@ -1590,39 +1590,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.14 22:19</t>
+          <t>2023.11.23 05:01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.24974</t>
+          <t>1.25057</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.14 22:27</t>
+          <t>2023.11.23 05:20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.24964</t>
+          <t>1.25036</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>-0,56 USD</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1632,39 +1632,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.13 10:15</t>
+          <t>2023.11.23 00:07</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.22436</t>
+          <t>1.24927</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.13 22:06</t>
+          <t>2023.11.23 05:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.22783</t>
+          <t>1.25058</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>85,00 USD</t>
+          <t>-2,76 USD</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1679,34 +1679,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.09 18:32</t>
+          <t>2023.11.22 15:41</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.22721</t>
+          <t>1.24914</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.09 18:33</t>
+          <t>2023.11.22 16:14</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.22723</t>
+          <t>1.2459</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-0,09 USD</t>
+          <t>25,36 USD</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1721,34 +1721,34 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.09 16:40</t>
+          <t>2023.11.22 10:15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.22885</t>
+          <t>1.25259</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.09 17:49</t>
+          <t>2023.11.22 15:03</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.22728</t>
+          <t>1.25059</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-6,56 USD</t>
+          <t>-6,21 USD</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1758,39 +1758,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.09 16:45</t>
+          <t>2023.11.22 09:40</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.22891</t>
+          <t>1.2512</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.09 17:48</t>
+          <t>2023.11.22 10:07</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.22721</t>
+          <t>1.2532</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-8,85 USD</t>
+          <t>-6,21 USD</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1805,34 +1805,34 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.09 16:47</t>
+          <t>2023.11.17 19:42</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.2285</t>
+          <t>1.24499</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.09 17:47</t>
+          <t>2023.11.20 06:22</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.22728</t>
+          <t>1.2489</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-6,45 USD</t>
+          <t>38,40 USD</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1847,34 +1847,34 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.09 16:41</t>
+          <t>2023.11.17 19:21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.22869</t>
+          <t>1.24437</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.09 16:45</t>
+          <t>2023.11.17 19:42</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.22903</t>
+          <t>1.24505</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1,08 USD</t>
+          <t>6,10 USD</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1889,34 +1889,34 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.09 16:42</t>
+          <t>2023.11.17 13:45</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.22864</t>
+          <t>1.24386</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.09 16:45</t>
+          <t>2023.11.17 19:20</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.22905</t>
+          <t>1.24446</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1,70 USD</t>
+          <t>5,30 USD</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1931,34 +1931,34 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.17 07:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.22855</t>
+          <t>1.24152</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.09 16:33</t>
+          <t>2023.11.17 08:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.22828</t>
+          <t>1.23933</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-6,80 USD</t>
+          <t>-29,38 USD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1968,39 +1968,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.17 06:34</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.2285</t>
+          <t>1.24055</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.09 16:33</t>
+          <t>2023.11.17 07:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.22836</t>
+          <t>1.24151</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-4,20 USD</t>
+          <t>-8,24 USD</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2015,34 +2015,34 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.16 14:47</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.22849</t>
+          <t>1.24358</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.09 16:33</t>
+          <t>2023.11.17 06:33</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.22832</t>
+          <t>1.24056</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-4,80 USD</t>
+          <t>-15,45 USD</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2057,34 +2057,34 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.09 12:01</t>
+          <t>2023.11.17 06:15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.22752</t>
+          <t>1.24062</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.17 06:33</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.22864</t>
+          <t>1.24056</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-23,80 USD</t>
+          <t>-0,01 USD</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2094,39 +2094,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.09 12:01</t>
+          <t>2023.11.16 14:45</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.22746</t>
+          <t>1.24305</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.16 14:47</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.2286</t>
+          <t>1.24361</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-24,20 USD</t>
+          <t>2,45 USD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2141,34 +2141,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.09 12:01</t>
+          <t>2023.11.16 13:05</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.22747</t>
+          <t>1.23988</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.09 15:55</t>
+          <t>2023.11.16 14:30</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.22858</t>
+          <t>1.24198</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-23,60 USD</t>
+          <t>-6,51 USD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2183,34 +2183,34 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.09 10:30</t>
+          <t>2023.11.16 12:20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.23051</t>
+          <t>1.24082</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.09 12:00</t>
+          <t>2023.11.16 13:05</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.22749</t>
+          <t>1.23988</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-61,80 USD</t>
+          <t>-2,02 USD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2220,39 +2220,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.09 10:30</t>
+          <t>2023.11.16 03:40</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.23048</t>
+          <t>1.2388</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.09 12:00</t>
+          <t>2023.11.16 10:16</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.22751</t>
+          <t>1.24082</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-60,80 USD</t>
+          <t>-2,09 USD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2267,34 +2267,34 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.08 20:45</t>
+          <t>2023.11.15 08:07</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.22875</t>
+          <t>1.24715</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.09 10:30</t>
+          <t>2023.11.15 14:42</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.23056</t>
+          <t>1.2435</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-37,60 USD</t>
+          <t>10,74 USD</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2304,39 +2304,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.08 19:56</t>
+          <t>2023.11.14 22:22</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.22977</t>
+          <t>1.24965</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.08 20:45</t>
+          <t>2023.11.15 07:34</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.22875</t>
+          <t>1.24888</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-21,80 USD</t>
+          <t>2,10 USD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2346,39 +2346,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.08 15:27</t>
+          <t>2023.11.14 22:19</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.22692</t>
+          <t>1.24974</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.08 16:51</t>
+          <t>2023.11.14 22:27</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.22833</t>
+          <t>1.24964</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>26,80 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2393,34 +2393,34 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.08 15:16</t>
+          <t>2023.11.13 10:15</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.2273</t>
+          <t>1.22436</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.08 15:25</t>
+          <t>2023.11.13 22:06</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.22661</t>
+          <t>1.22783</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-15,20 USD</t>
+          <t>85,00 USD</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2435,34 +2435,34 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.08 00:24</t>
+          <t>2023.11.09 18:32</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>1.22721</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.08 09:19</t>
+          <t>2023.11.09 18:33</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.2265</t>
+          <t>1.22723</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>52,60 USD</t>
+          <t>-0,09 USD</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2472,39 +2472,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.08 00:24</t>
+          <t>2023.11.09 16:40</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>1.22885</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.08 09:19</t>
+          <t>2023.11.09 17:49</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.2265</t>
+          <t>1.22728</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>52,60 USD</t>
+          <t>-6,56 USD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2519,34 +2519,34 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.07 22:41</t>
+          <t>2023.11.09 16:45</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.22992</t>
+          <t>1.22891</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.08 00:22</t>
+          <t>2023.11.09 17:48</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.22922</t>
+          <t>1.22721</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-15,40 USD</t>
+          <t>-8,85 USD</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2561,34 +2561,34 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.07 22:41</t>
+          <t>2023.11.09 16:47</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.22991</t>
+          <t>1.2285</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.08 00:22</t>
+          <t>2023.11.09 17:47</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.22922</t>
+          <t>1.22728</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-15,20 USD</t>
+          <t>-6,45 USD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2598,39 +2598,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.07 21:06</t>
+          <t>2023.11.09 16:41</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.22897</t>
+          <t>1.22869</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.07 22:39</t>
+          <t>2023.11.09 16:45</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.22994</t>
+          <t>1.22903</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-20,80 USD</t>
+          <t>1,08 USD</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2645,34 +2645,34 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.07 20:16</t>
+          <t>2023.11.09 16:42</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.23037</t>
+          <t>1.22864</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.07 21:05</t>
+          <t>2023.11.09 16:45</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.22908</t>
+          <t>1.22905</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-27,20 USD</t>
+          <t>1,70 USD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2687,34 +2687,34 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.07 20:14</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.23012</t>
+          <t>1.22855</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.07 20:16</t>
+          <t>2023.11.09 16:33</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.23038</t>
+          <t>1.22828</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3,42 USD</t>
+          <t>-6,80 USD</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2724,32 +2724,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.07 08:00</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.23189</t>
+          <t>1.2285</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.07 12:38</t>
+          <t>2023.11.09 16:33</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.22779</t>
+          <t>1.22836</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>72,54 USD</t>
+          <t>-4,20 USD</t>
         </is>
       </c>
     </row>
@@ -2771,27 +2771,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.08 15:27</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.22692</t>
+          <t>1.22849</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.08 16:51</t>
+          <t>2023.11.09 16:33</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.22833</t>
+          <t>1.22832</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>26,80 USD</t>
+          <t>-4,80 USD</t>
         </is>
       </c>
     </row>
@@ -2808,32 +2808,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.08 15:16</t>
+          <t>2023.11.09 12:01</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.2273</t>
+          <t>1.22752</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.08 15:25</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.22661</t>
+          <t>1.22864</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-15,20 USD</t>
+          <t>-23,80 USD</t>
         </is>
       </c>
     </row>
@@ -2855,27 +2855,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.08 00:24</t>
+          <t>2023.11.09 12:01</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>1.22746</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.08 09:19</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.2265</t>
+          <t>1.2286</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>52,60 USD</t>
+          <t>-24,20 USD</t>
         </is>
       </c>
     </row>
@@ -2897,27 +2897,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.08 00:24</t>
+          <t>2023.11.09 12:01</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.2292</t>
+          <t>1.22747</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.08 09:19</t>
+          <t>2023.11.09 15:55</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.2265</t>
+          <t>1.22858</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>52,60 USD</t>
+          <t>-23,60 USD</t>
         </is>
       </c>
     </row>
@@ -2939,27 +2939,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.07 22:41</t>
+          <t>2023.11.09 10:30</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.22992</t>
+          <t>1.23051</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.08 00:22</t>
+          <t>2023.11.09 12:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.22922</t>
+          <t>1.22749</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-15,40 USD</t>
+          <t>-61,80 USD</t>
         </is>
       </c>
     </row>
@@ -2981,27 +2981,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.07 22:41</t>
+          <t>2023.11.09 10:30</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.22991</t>
+          <t>1.23048</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.08 00:22</t>
+          <t>2023.11.09 12:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.22922</t>
+          <t>1.22751</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-15,20 USD</t>
+          <t>-60,80 USD</t>
         </is>
       </c>
     </row>
@@ -3023,27 +3023,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.07 21:06</t>
+          <t>2023.11.08 20:45</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.22897</t>
+          <t>1.22875</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.07 22:39</t>
+          <t>2023.11.09 10:30</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.22994</t>
+          <t>1.23056</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-20,80 USD</t>
+          <t>-37,60 USD</t>
         </is>
       </c>
     </row>
@@ -3065,34 +3065,34 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.07 20:16</t>
+          <t>2023.11.08 19:56</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.23037</t>
+          <t>1.22977</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.07 21:05</t>
+          <t>2023.11.08 20:45</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.22908</t>
+          <t>1.22875</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-27,20 USD</t>
+          <t>-21,80 USD</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3107,34 +3107,34 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.07 20:14</t>
+          <t>2023.11.08 15:27</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.23012</t>
+          <t>1.22692</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.07 20:16</t>
+          <t>2023.11.08 16:51</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.23038</t>
+          <t>1.22833</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3,42 USD</t>
+          <t>26,80 USD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3144,39 +3144,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.07 08:00</t>
+          <t>2023.11.08 15:16</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.23189</t>
+          <t>1.2273</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.07 12:38</t>
+          <t>2023.11.08 15:25</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.22779</t>
+          <t>1.22661</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>72,54 USD</t>
+          <t>-15,20 USD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3191,34 +3191,34 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.06 12:15</t>
+          <t>2023.11.08 00:24</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.24165</t>
+          <t>1.2292</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.06 18:46</t>
+          <t>2023.11.08 09:19</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.2372</t>
+          <t>1.2265</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>65,70 USD</t>
+          <t>52,60 USD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3233,34 +3233,34 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.06 12:14</t>
+          <t>2023.11.08 00:24</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.2417</t>
+          <t>1.2292</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.06 18:46</t>
+          <t>2023.11.08 09:19</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.2372</t>
+          <t>1.2265</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>66,45 USD</t>
+          <t>52,60 USD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3270,39 +3270,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.06 10:32</t>
+          <t>2023.11.07 22:41</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.24105</t>
+          <t>1.22992</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.06 18:46</t>
+          <t>2023.11.08 00:22</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.2372</t>
+          <t>1.22922</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>56,70 USD</t>
+          <t>-15,40 USD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3312,39 +3312,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.06 10:32</t>
+          <t>2023.11.07 22:41</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.24101</t>
+          <t>1.22991</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.06 18:46</t>
+          <t>2023.11.08 00:22</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.2372</t>
+          <t>1.22922</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>56,10 USD</t>
+          <t>-15,20 USD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3359,34 +3359,34 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.06 10:31</t>
+          <t>2023.11.07 21:06</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.24126</t>
+          <t>1.22897</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.06 18:46</t>
+          <t>2023.11.07 22:39</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.2372</t>
+          <t>1.22994</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>59,85 USD</t>
+          <t>-20,80 USD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3396,39 +3396,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.06 12:22</t>
+          <t>2023.11.07 20:16</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.24202</t>
+          <t>1.23037</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.06 13:27</t>
+          <t>2023.11.07 21:05</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.24205</t>
+          <t>1.22908</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-1,50 USD</t>
+          <t>-27,20 USD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3438,39 +3438,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.03 17:36</t>
+          <t>2023.11.07 20:14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.23774</t>
+          <t>1.23012</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.06 09:35</t>
+          <t>2023.11.07 20:16</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.24005</t>
+          <t>1.23038</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-35,70 USD</t>
+          <t>3,42 USD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3485,34 +3485,34 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.03 17:11</t>
+          <t>2023.11.07 08:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.23663</t>
+          <t>1.23189</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.06 09:35</t>
+          <t>2023.11.07 12:38</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.24005</t>
+          <t>1.22779</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-52,35 USD</t>
+          <t>72,54 USD</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3522,39 +3522,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.03 17:11</t>
+          <t>2023.11.08 15:27</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.23657</t>
+          <t>1.22692</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.06 09:35</t>
+          <t>2023.11.08 16:51</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.24005</t>
+          <t>1.22833</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>-53,25 USD</t>
+          <t>26,80 USD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3564,39 +3564,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.03 16:02</t>
+          <t>2023.11.08 15:16</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.23443</t>
+          <t>1.2273</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.03 16:31</t>
+          <t>2023.11.08 15:25</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.23657</t>
+          <t>1.22661</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-33,15 USD</t>
+          <t>-15,20 USD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3611,34 +3611,34 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.03 15:02</t>
+          <t>2023.11.08 00:24</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.23316</t>
+          <t>1.2292</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.03 16:31</t>
+          <t>2023.11.08 09:19</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.23657</t>
+          <t>1.2265</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-52,20 USD</t>
+          <t>52,60 USD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3653,34 +3653,34 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.03 14:24</t>
+          <t>2023.11.08 00:24</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.23224</t>
+          <t>1.2292</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.03 15:00</t>
+          <t>2023.11.08 09:19</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.23489</t>
+          <t>1.2265</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-40,80 USD</t>
+          <t>52,60 USD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3695,34 +3695,34 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.03 10:37</t>
+          <t>2023.11.07 22:41</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.22067</t>
+          <t>1.22992</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.03 13:14</t>
+          <t>2023.11.08 00:22</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.2234</t>
+          <t>1.22922</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>39,90 USD</t>
+          <t>-15,40 USD</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3737,34 +3737,34 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.03 10:37</t>
+          <t>2023.11.07 22:41</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.22066</t>
+          <t>1.22991</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.03 13:14</t>
+          <t>2023.11.08 00:22</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.22338</t>
+          <t>1.22922</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>39,75 USD</t>
+          <t>-15,20 USD</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3774,39 +3774,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.03 10:37</t>
+          <t>2023.11.07 21:06</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.22065</t>
+          <t>1.22897</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.03 13:14</t>
+          <t>2023.11.07 22:39</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.2234</t>
+          <t>1.22994</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>40,20 USD</t>
+          <t>-20,80 USD</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3816,39 +3816,39 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.03 10:11</t>
+          <t>2023.11.07 20:16</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.21926</t>
+          <t>1.23037</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.03 10:35</t>
+          <t>2023.11.07 21:05</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.22049</t>
+          <t>1.22908</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-19,50 USD</t>
+          <t>-27,20 USD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3858,39 +3858,39 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.03 10:11</t>
+          <t>2023.11.07 20:14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.21928</t>
+          <t>1.23012</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.03 10:35</t>
+          <t>2023.11.07 20:16</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.22049</t>
+          <t>1.23038</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-19,20 USD</t>
+          <t>3,42 USD</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3900,39 +3900,39 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.03 03:10</t>
+          <t>2023.11.07 08:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.21949</t>
+          <t>1.23189</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.03 10:09</t>
+          <t>2023.11.07 12:38</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.21915</t>
+          <t>1.22779</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>-4,10 USD</t>
+          <t>72,54 USD</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3942,39 +3942,39 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.03 03:10</t>
+          <t>2023.11.06 12:15</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.21948</t>
+          <t>1.24165</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.03 09:12</t>
+          <t>2023.11.06 18:46</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.21949</t>
+          <t>1.2372</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-0,60 USD</t>
+          <t>65,70 USD</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3989,34 +3989,34 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.03 02:10</t>
+          <t>2023.11.06 12:14</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.21876</t>
+          <t>1.2417</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.03 03:10</t>
+          <t>2023.11.06 18:46</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.21953</t>
+          <t>1.2372</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-8,40 USD</t>
+          <t>66,45 USD</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4031,34 +4031,34 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.03 02:11</t>
+          <t>2023.11.06 10:32</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.21876</t>
+          <t>1.24105</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.03 03:10</t>
+          <t>2023.11.06 18:46</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.21953</t>
+          <t>1.2372</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-8,40 USD</t>
+          <t>56,70 USD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4068,39 +4068,39 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.02 21:52</t>
+          <t>2023.11.06 10:32</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.22013</t>
+          <t>1.24101</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.03 02:08</t>
+          <t>2023.11.06 18:46</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.21854</t>
+          <t>1.2372</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-13,28 USD</t>
+          <t>56,10 USD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4110,39 +4110,39 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.02 18:20</t>
+          <t>2023.11.06 10:31</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.21895</t>
+          <t>1.24126</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.03 02:08</t>
+          <t>2023.11.06 18:46</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.21854</t>
+          <t>1.2372</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-4,80 USD</t>
+          <t>59,85 USD</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4152,39 +4152,39 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.02 18:21</t>
+          <t>2023.11.06 12:22</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.21894</t>
+          <t>1.24202</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.02 21:55</t>
+          <t>2023.11.06 13:27</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.22022</t>
+          <t>1.24205</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>12,10 USD</t>
+          <t>-1,50 USD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4199,34 +4199,34 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.02 17:16</t>
+          <t>2023.11.03 17:36</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.21765</t>
+          <t>1.23774</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.02 18:20</t>
+          <t>2023.11.06 09:35</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.21888</t>
+          <t>1.24005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-13,00 USD</t>
+          <t>-35,70 USD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4241,34 +4241,34 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.02 14:50</t>
+          <t>2023.11.03 17:11</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.21874</t>
+          <t>1.23663</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.02 17:15</t>
+          <t>2023.11.06 09:35</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.21753</t>
+          <t>1.24005</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>11,40 USD</t>
+          <t>-52,35 USD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4278,39 +4278,39 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.02 10:28</t>
+          <t>2023.11.03 17:11</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.21849</t>
+          <t>1.23657</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.02 14:48</t>
+          <t>2023.11.06 09:35</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.219</t>
+          <t>1.24005</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>4,40 USD</t>
+          <t>-53,25 USD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4325,34 +4325,34 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.02 08:08</t>
+          <t>2023.11.03 16:02</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.21764</t>
+          <t>1.23443</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.02 10:27</t>
+          <t>2023.11.03 16:31</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.21849</t>
+          <t>1.23657</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-9,20 USD</t>
+          <t>-33,15 USD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4367,34 +4367,34 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.02 05:28</t>
+          <t>2023.11.03 15:02</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.21869</t>
+          <t>1.23316</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.02 07:59</t>
+          <t>2023.11.03 16:31</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.21804</t>
+          <t>1.23657</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>5,80 USD</t>
+          <t>-52,20 USD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4409,34 +4409,34 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.02 05:25</t>
+          <t>2023.11.03 14:24</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.21869</t>
+          <t>1.23224</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.02 07:58</t>
+          <t>2023.11.03 15:00</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.21816</t>
+          <t>1.23489</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>3,68 USD</t>
+          <t>-40,80 USD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4451,34 +4451,34 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.01 20:50</t>
+          <t>2023.11.03 10:37</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.21487</t>
+          <t>1.22067</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.02 01:29</t>
+          <t>2023.11.03 13:14</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.21871</t>
+          <t>1.2234</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>30,16 USD</t>
+          <t>39,90 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4493,34 +4493,34 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.01 20:50</t>
+          <t>2023.11.03 10:37</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.21475</t>
+          <t>1.22066</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.02 01:29</t>
+          <t>2023.11.03 13:14</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.21879</t>
+          <t>1.22338</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>31,76 USD</t>
+          <t>39,75 USD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4530,39 +4530,39 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.01 17:00</t>
+          <t>2023.11.03 10:37</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.21258</t>
+          <t>1.22065</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.01 20:19</t>
+          <t>2023.11.03 13:14</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.21501</t>
+          <t>1.2234</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-20,00 USD</t>
+          <t>40,20 USD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4577,34 +4577,34 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.01 17:06</t>
+          <t>2023.11.03 10:11</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.21239</t>
+          <t>1.21926</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.01 20:03</t>
+          <t>2023.11.03 10:35</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.21339</t>
+          <t>1.22049</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-8,56 USD</t>
+          <t>-19,50 USD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4619,34 +4619,34 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.01 10:45</t>
+          <t>2023.11.03 10:11</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.21381</t>
+          <t>1.21928</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.01 14:31</t>
+          <t>2023.11.03 10:35</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.20971</t>
+          <t>1.22049</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>32,24 USD</t>
+          <t>-19,20 USD</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4656,39 +4656,39 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023.11.01 13:10</t>
+          <t>2023.11.03 03:10</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>1.21949</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2023.11.01 14:31</t>
+          <t>2023.11.03 10:09</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.20971</t>
+          <t>1.21915</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>6,44 USD</t>
+          <t>-4,10 USD</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4698,39 +4698,39 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023.11.01 13:10</t>
+          <t>2023.11.03 03:10</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.21299</t>
+          <t>1.21948</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2023.11.01 14:31</t>
+          <t>2023.11.03 09:12</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1.20971</t>
+          <t>1.21949</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>25,68 USD</t>
+          <t>-0,60 USD</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4740,109 +4740,865 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2023.11.01 08:26</t>
+          <t>2023.11.03 02:10</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.21582</t>
+          <t>1.21876</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2023.11.01 10:31</t>
+          <t>2023.11.03 03:10</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1.21382</t>
+          <t>1.21953</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>-16,56 USD</t>
+          <t>-8,40 USD</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023.11.03 02:11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1.21876</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2023.11.03 03:10</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1.21953</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>-8,40 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>0,08</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023.11.02 21:52</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1.22013</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2023.11.03 02:08</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1.21854</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>-13,28 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023.11.02 18:20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1.21895</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2023.11.03 02:08</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1.21854</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-4,80 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023.11.02 18:21</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1.21894</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2023.11.02 21:55</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1.22022</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>12,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023.11.02 17:16</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1.21765</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2023.11.02 18:20</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1.21888</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>-13,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023.11.02 14:50</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1.21874</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2023.11.02 17:15</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1.21753</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>11,40 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023.11.02 10:28</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1.21849</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2023.11.02 14:48</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1.219</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>4,40 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023.11.02 08:08</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1.21764</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2023.11.02 10:27</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1.21849</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>-9,20 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023.11.02 05:28</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1.21869</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2023.11.02 07:59</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1.21804</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>5,80 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023.11.02 05:25</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1.21869</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2023.11.02 07:58</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1.21816</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>3,68 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023.11.01 20:50</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1.21487</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2023.11.02 01:29</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1.21871</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>30,16 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023.11.01 20:50</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1.21475</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2023.11.02 01:29</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1.21879</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>31,76 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023.11.01 17:00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1.21258</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2023.11.01 20:19</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1.21501</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>-20,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023.11.01 17:06</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1.21239</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2023.11.01 20:03</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1.21339</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>-8,56 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023.11.01 10:45</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1.21381</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2023.11.01 14:31</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1.20971</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>32,24 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023.11.01 13:10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1.213</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2023.11.01 14:31</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1.20971</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>6,44 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023.11.01 13:10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1.21299</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2023.11.01 14:31</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1.20971</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>25,68 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023.11.01 08:26</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1.21582</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2023.11.01 10:31</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>1.21382</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>-16,56 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>2023.10.31 14:45</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1.21437</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>2023.11.01 08:26</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>1.21586</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>-12,48 USD</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="B105" t="inlineStr">
+    <row r="123">
+      <c r="B123" t="inlineStr">
         <is>
           <t>TradingS Capital</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>2023.03.09 22:36</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>356.35%</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>2023.03.10 04:03</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>356.1%</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>0,00 USD</t>
         </is>
